--- a/data/trans_orig/hab_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/hab_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>193338</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>171517</v>
+        <v>168476</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>217061</v>
+        <v>214981</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3309790047437267</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.293621789883849</v>
+        <v>0.2884164498452351</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3715901446193252</v>
+        <v>0.3680298579176666</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>289</v>
@@ -765,19 +765,19 @@
         <v>305526</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>278109</v>
+        <v>279607</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>333619</v>
+        <v>339125</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3312533052147799</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3015279493277997</v>
+        <v>0.3031520500831943</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3617116329283807</v>
+        <v>0.3676813232639899</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>492</v>
@@ -786,19 +786,19 @@
         <v>498864</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>462656</v>
+        <v>458598</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>538457</v>
+        <v>535365</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3311469441321049</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3071119653102885</v>
+        <v>0.30441798925112</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3574288644774188</v>
+        <v>0.3553762321149882</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>131935</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>112425</v>
+        <v>111696</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>154715</v>
+        <v>152602</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2258619617374747</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1924629063204246</v>
+        <v>0.1912142952630226</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2648581858727595</v>
+        <v>0.2612422362396332</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>204</v>
@@ -836,19 +836,19 @@
         <v>204183</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>180668</v>
+        <v>177915</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>232206</v>
+        <v>228275</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2213764284321256</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1958819669084951</v>
+        <v>0.1928966830748058</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2517589921908842</v>
+        <v>0.2474970952506771</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>327</v>
@@ -857,19 +857,19 @@
         <v>336118</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>301531</v>
+        <v>301911</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>370703</v>
+        <v>367046</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2231157115507423</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2001567339215824</v>
+        <v>0.2004091884045254</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2460732909335228</v>
+        <v>0.2436456795632146</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>158693</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>137300</v>
+        <v>138320</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>182537</v>
+        <v>181846</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2716695437632188</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2350456957102191</v>
+        <v>0.2367921703035793</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3124874596928869</v>
+        <v>0.3113042754640745</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>231</v>
@@ -907,19 +907,19 @@
         <v>249682</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>220877</v>
+        <v>222322</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>275109</v>
+        <v>275890</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2707069906780918</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2394759199411076</v>
+        <v>0.2410429328970663</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2982754497173266</v>
+        <v>0.299121601997197</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>380</v>
@@ -928,19 +928,19 @@
         <v>408375</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>372801</v>
+        <v>374060</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>445795</v>
+        <v>444450</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2710802244092376</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2474659378994546</v>
+        <v>0.2483014016589074</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2959197693277457</v>
+        <v>0.2950269572921512</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>100174</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>82567</v>
+        <v>84013</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>120975</v>
+        <v>119372</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1714894897555798</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1413476692395836</v>
+        <v>0.1438223538082939</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2070982650611161</v>
+        <v>0.2043544357540966</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>161</v>
@@ -978,19 +978,19 @@
         <v>162942</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>140930</v>
+        <v>142024</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>183860</v>
+        <v>187782</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1766632756750026</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1527970876456961</v>
+        <v>0.1539837920941602</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1993421108102748</v>
+        <v>0.2035948980609478</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>260</v>
@@ -999,19 +999,19 @@
         <v>263116</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>233264</v>
+        <v>232359</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>293267</v>
+        <v>293456</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1746571199079152</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1548412939875791</v>
+        <v>0.1542402845574897</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1946712229406815</v>
+        <v>0.1947965025927119</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>292674</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>263898</v>
+        <v>266162</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>322923</v>
+        <v>322619</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2715237754488909</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2448274845894894</v>
+        <v>0.2469274095556359</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2995868921238428</v>
+        <v>0.299304914580416</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>275</v>
@@ -1124,19 +1124,19 @@
         <v>286915</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>259006</v>
+        <v>258613</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>315026</v>
+        <v>318181</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2713046914554958</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2449138895470094</v>
+        <v>0.2445426029408169</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2978866249762686</v>
+        <v>0.3008693240965729</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>584</v>
@@ -1145,19 +1145,19 @@
         <v>579589</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>541519</v>
+        <v>541902</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>620179</v>
+        <v>621355</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2714152776624848</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2535877566963336</v>
+        <v>0.2537669865976444</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2904233142056875</v>
+        <v>0.2909738959017819</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>218819</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>192389</v>
+        <v>190840</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>247168</v>
+        <v>246342</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2030063193109579</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1784858736415178</v>
+        <v>0.1770486426542749</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2293060228546092</v>
+        <v>0.2285404034875987</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>228</v>
@@ -1195,19 +1195,19 @@
         <v>227629</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>201530</v>
+        <v>203755</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>254460</v>
+        <v>254105</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2152441256963282</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1905651711170217</v>
+        <v>0.1926693682569419</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2406150474210889</v>
+        <v>0.2402794159942674</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>430</v>
@@ -1216,19 +1216,19 @@
         <v>446448</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>412701</v>
+        <v>409658</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>489198</v>
+        <v>488856</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2090668939914847</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1932633581479185</v>
+        <v>0.1918385322740909</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2290863794556366</v>
+        <v>0.2289262684420136</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>324684</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>294677</v>
+        <v>294654</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>356418</v>
+        <v>356231</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3012202708174214</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2733823884269611</v>
+        <v>0.2733604665785845</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3306613211079771</v>
+        <v>0.3304879795319433</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>285</v>
@@ -1266,19 +1266,19 @@
         <v>306410</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>279213</v>
+        <v>276217</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>337631</v>
+        <v>335037</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2897387281598583</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2640217300613117</v>
+        <v>0.261188859444549</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3192613552749924</v>
+        <v>0.3168088448881414</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>589</v>
@@ -1287,19 +1287,19 @@
         <v>631093</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>587475</v>
+        <v>591565</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>670920</v>
+        <v>671951</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2955342234546358</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2751084956007185</v>
+        <v>0.2770237144443231</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3141845651748264</v>
+        <v>0.3146674060886335</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>241717</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>215026</v>
+        <v>217954</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>268594</v>
+        <v>272630</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2242496344227299</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1994875734117139</v>
+        <v>0.2022033636424293</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2491838723761159</v>
+        <v>0.2529286327737026</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>240</v>
@@ -1337,19 +1337,19 @@
         <v>236584</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>211194</v>
+        <v>210102</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>266102</v>
+        <v>265352</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2237124546883177</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.199703174841065</v>
+        <v>0.1986712884855307</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2516239092411176</v>
+        <v>0.2509150423351627</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>480</v>
@@ -1358,19 +1358,19 @@
         <v>478302</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>443470</v>
+        <v>442277</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>518745</v>
+        <v>519657</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2239836048913947</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2076724279972713</v>
+        <v>0.2071135105056369</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2429226677724996</v>
+        <v>0.2433499185152529</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>289474</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>261591</v>
+        <v>262326</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>320669</v>
+        <v>319706</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2580914449923779</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2332314619429169</v>
+        <v>0.2338863814985945</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2859043951496484</v>
+        <v>0.2850462097540294</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>269</v>
@@ -1483,19 +1483,19 @@
         <v>278603</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>250262</v>
+        <v>250302</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>306796</v>
+        <v>308710</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2803011735455069</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.251787724121022</v>
+        <v>0.2518285548470634</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3086662332610559</v>
+        <v>0.3105918480561558</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>579</v>
@@ -1504,19 +1504,19 @@
         <v>568076</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>528077</v>
+        <v>528228</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>605582</v>
+        <v>604129</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2685262241390446</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2496189044598609</v>
+        <v>0.2496900665283969</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2862550388890963</v>
+        <v>0.2855678623024981</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>240799</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>213714</v>
+        <v>215526</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>270588</v>
+        <v>271447</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2146932160904338</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.190544996112723</v>
+        <v>0.1921607892804298</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2412533672730607</v>
+        <v>0.2420191678314534</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>184</v>
@@ -1554,19 +1554,19 @@
         <v>176551</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>154423</v>
+        <v>155301</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>201042</v>
+        <v>203117</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1776270136951482</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1553640705232764</v>
+        <v>0.156247920116997</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2022674526843583</v>
+        <v>0.2043558078139295</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>414</v>
@@ -1575,19 +1575,19 @@
         <v>417349</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>383029</v>
+        <v>384653</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>457604</v>
+        <v>455066</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1972784316244632</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1810555249322352</v>
+        <v>0.1818229530850199</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2163067363309584</v>
+        <v>0.2151067643486618</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>316192</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>287440</v>
+        <v>286358</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>347622</v>
+        <v>347584</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2819126417145958</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.256278493590851</v>
+        <v>0.2553132460559742</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.309935707577974</v>
+        <v>0.3099018578528124</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>284</v>
@@ -1625,19 +1625,19 @@
         <v>298621</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>267682</v>
+        <v>269255</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>329786</v>
+        <v>326468</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3004416405993927</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2693143997958807</v>
+        <v>0.2708965675477678</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3317970489656903</v>
+        <v>0.3284588658925307</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>579</v>
@@ -1646,19 +1646,19 @@
         <v>614812</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>575985</v>
+        <v>573554</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>661465</v>
+        <v>656788</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2906181065611912</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2722643880471431</v>
+        <v>0.2711153502884271</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.312670299039176</v>
+        <v>0.3104598149934191</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>275130</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>246442</v>
+        <v>247079</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>303565</v>
+        <v>302687</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2453026972025925</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.219724887827365</v>
+        <v>0.2202925322958967</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2706547450564428</v>
+        <v>0.2698724601592756</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>245</v>
@@ -1696,19 +1696,19 @@
         <v>240166</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>216118</v>
+        <v>214372</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>269169</v>
+        <v>267237</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2416301721599522</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2174357957148317</v>
+        <v>0.2156786113505378</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.270810456263182</v>
+        <v>0.2688662264523759</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>513</v>
@@ -1717,19 +1717,19 @@
         <v>515296</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>477277</v>
+        <v>477684</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>554806</v>
+        <v>552059</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.243577237675301</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.225605824023908</v>
+        <v>0.2257983179731619</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2622536255148896</v>
+        <v>0.2609547816175145</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>150651</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>132669</v>
+        <v>131104</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>172357</v>
+        <v>170614</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3368754502131036</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2966669836356922</v>
+        <v>0.2931671142011013</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3854128629561362</v>
+        <v>0.3815159843937873</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>142</v>
@@ -1842,19 +1842,19 @@
         <v>145755</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>127404</v>
+        <v>127670</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>164969</v>
+        <v>164362</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4272369109830262</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3734464933141571</v>
+        <v>0.3742239682356676</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4835568986092723</v>
+        <v>0.481776640866974</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>297</v>
@@ -1863,19 +1863,19 @@
         <v>296406</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>268370</v>
+        <v>268582</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>325103</v>
+        <v>322488</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3759789495911628</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3404166691709435</v>
+        <v>0.3406848650280628</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4123797007435507</v>
+        <v>0.4090630091654288</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>80109</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>64455</v>
+        <v>65124</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>96161</v>
+        <v>97325</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1791345669153281</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1441308738097482</v>
+        <v>0.1456271295962519</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2150299506926711</v>
+        <v>0.2176324235561659</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>65</v>
@@ -1916,16 +1916,16 @@
         <v>47699</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>74321</v>
+        <v>75782</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1777046826616347</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1398146912542784</v>
+        <v>0.1398155857577134</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.217849317878654</v>
+        <v>0.2221305998280776</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>144</v>
@@ -1934,19 +1934,19 @@
         <v>140734</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>118982</v>
+        <v>118648</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>163748</v>
+        <v>162280</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1785157911944778</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1509242914853077</v>
+        <v>0.1505001068660864</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2077077790419191</v>
+        <v>0.2058453639230868</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>147862</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>128744</v>
+        <v>127306</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>169151</v>
+        <v>168181</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3306391218376964</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2878884160398609</v>
+        <v>0.2846741958620219</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3782444432454088</v>
+        <v>0.3760765578504064</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>91</v>
@@ -1984,19 +1984,19 @@
         <v>95547</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>78050</v>
+        <v>79103</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>111707</v>
+        <v>111741</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2800658514919522</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2287785850812358</v>
+        <v>0.2318651477590979</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.327434168977556</v>
+        <v>0.3275340106880552</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>226</v>
@@ -2005,19 +2005,19 @@
         <v>243409</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>217229</v>
+        <v>216352</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>272464</v>
+        <v>268864</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3087537757104735</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2755459053698481</v>
+        <v>0.2744334694181708</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3456092781803427</v>
+        <v>0.3410424136207698</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>68579</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54352</v>
+        <v>54669</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>84850</v>
+        <v>83763</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1533508610338719</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.121537352486794</v>
+        <v>0.1222469055139438</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1897369260850353</v>
+        <v>0.1873063654378241</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>41</v>
@@ -2055,19 +2055,19 @@
         <v>39231</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>28617</v>
+        <v>27956</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>51285</v>
+        <v>51817</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.114992554863387</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08388118175863427</v>
+        <v>0.08194518679424731</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1503273666265088</v>
+        <v>0.1518844000303235</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>108</v>
@@ -2076,19 +2076,19 @@
         <v>107809</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>90013</v>
+        <v>89202</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>126681</v>
+        <v>127556</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1367514835038859</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1141774936691203</v>
+        <v>0.1131493524673362</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.160689529090328</v>
+        <v>0.1617990390584737</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>926137</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>875971</v>
+        <v>878222</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>978950</v>
+        <v>977104</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2866560749089165</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2711288592255185</v>
+        <v>0.2718255068013114</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3030028070824112</v>
+        <v>0.3024314365309245</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>975</v>
@@ -2201,19 +2201,19 @@
         <v>1016799</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>961451</v>
+        <v>960895</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1064967</v>
+        <v>1066098</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3067294873264115</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.290033247293046</v>
+        <v>0.2898654131153915</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3212600839816703</v>
+        <v>0.3216011677895374</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1952</v>
@@ -2222,19 +2222,19 @@
         <v>1942935</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1864964</v>
+        <v>1871375</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2022276</v>
+        <v>2015101</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2968217926885222</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2849101494260716</v>
+        <v>0.2858895580946362</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3089425618840922</v>
+        <v>0.3078465162342082</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>671662</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>628933</v>
+        <v>624771</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>724033</v>
+        <v>722797</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2078915812894714</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1946662081616477</v>
+        <v>0.1933779673425971</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.224101234098644</v>
+        <v>0.2237187832761048</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>681</v>
@@ -2272,19 +2272,19 @@
         <v>668988</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>625686</v>
+        <v>626677</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>713243</v>
+        <v>718376</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.20180810144587</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1887457662644207</v>
+        <v>0.1890447230947606</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2151581893350546</v>
+        <v>0.2167066658959694</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1315</v>
@@ -2293,19 +2293,19 @@
         <v>1340650</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1275003</v>
+        <v>1265444</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1408333</v>
+        <v>1401363</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2048107429187083</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1947819644902085</v>
+        <v>0.1933216520107318</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2151506329677271</v>
+        <v>0.2140858751674672</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>947430</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>888619</v>
+        <v>895536</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>998258</v>
+        <v>1005645</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2932467655780063</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2750435335899883</v>
+        <v>0.2771847211528628</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3089788239708617</v>
+        <v>0.3112652191745543</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>891</v>
@@ -2343,19 +2343,19 @@
         <v>950259</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>900057</v>
+        <v>899055</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1003659</v>
+        <v>1002818</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2866570906256238</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2715128085672173</v>
+        <v>0.2712108155891907</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3027656105611727</v>
+        <v>0.3025119737207645</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1774</v>
@@ -2364,19 +2364,19 @@
         <v>1897690</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1826165</v>
+        <v>1820417</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1977754</v>
+        <v>1973662</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2899095763432117</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2789828458200546</v>
+        <v>0.2781046939010977</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.302140979552923</v>
+        <v>0.3015159064556875</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>685600</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>641475</v>
+        <v>639601</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>734584</v>
+        <v>735118</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2122055782236058</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1985482269998901</v>
+        <v>0.1979679882162669</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2273670283119805</v>
+        <v>0.2275324077763277</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>687</v>
@@ -2414,19 +2414,19 @@
         <v>678923</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>635716</v>
+        <v>632248</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>724162</v>
+        <v>723825</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2048053206020946</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1917711835686712</v>
+        <v>0.1907252129205669</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2184522124394621</v>
+        <v>0.2183505867147022</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1361</v>
@@ -2435,19 +2435,19 @@
         <v>1364523</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1297016</v>
+        <v>1292069</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1430884</v>
+        <v>1428460</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2084578880495578</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1981447591213858</v>
+        <v>0.1973890425556614</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2185958480151683</v>
+        <v>0.2182254944430163</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>219455</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>192543</v>
+        <v>194316</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>247619</v>
+        <v>249185</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2102192496677516</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1844396463722089</v>
+        <v>0.1861375993814869</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2371972446144582</v>
+        <v>0.2386974326695734</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>248</v>
@@ -2800,19 +2800,19 @@
         <v>260928</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>231666</v>
+        <v>235073</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>289610</v>
+        <v>292155</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2329866711489658</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2068583354104876</v>
+        <v>0.2098999446143878</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2585972197848677</v>
+        <v>0.2608698767435392</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>458</v>
@@ -2821,19 +2821,19 @@
         <v>480384</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>438112</v>
+        <v>442275</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>519283</v>
+        <v>519236</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.222002749411256</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2024677379890099</v>
+        <v>0.2043914195670278</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2399795411982101</v>
+        <v>0.2399580159092625</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>266641</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>238908</v>
+        <v>241330</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>300243</v>
+        <v>297342</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2554192120065882</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2288534455792701</v>
+        <v>0.231173363463825</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2876065370340353</v>
+        <v>0.2848280425251901</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>260</v>
@@ -2871,19 +2871,19 @@
         <v>284652</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>255246</v>
+        <v>256099</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>314396</v>
+        <v>316989</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.254170075465495</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2279128343215577</v>
+        <v>0.2286748995842332</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2807288466776998</v>
+        <v>0.2830442456445194</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>509</v>
@@ -2892,19 +2892,19 @@
         <v>551293</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>512052</v>
+        <v>504962</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>591615</v>
+        <v>593071</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2547727092779539</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2366381125695835</v>
+        <v>0.2333614838124363</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2734069397973194</v>
+        <v>0.2740797862290418</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>359022</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>324639</v>
+        <v>328514</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>389017</v>
+        <v>390803</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3439126445178265</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3109762532733021</v>
+        <v>0.3146879391737962</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3726445707552954</v>
+        <v>0.3743553310294263</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>328</v>
@@ -2942,19 +2942,19 @@
         <v>363675</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>329891</v>
+        <v>332076</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>394792</v>
+        <v>397094</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3247311410398446</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2945642282751076</v>
+        <v>0.2965153440629811</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3525151364327647</v>
+        <v>0.3545705931478474</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>655</v>
@@ -2963,19 +2963,19 @@
         <v>722698</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>679482</v>
+        <v>674505</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>772100</v>
+        <v>762702</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3339850714064258</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3140134240969361</v>
+        <v>0.3117132038753015</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3568155865801694</v>
+        <v>0.3524722024946504</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>198816</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>175678</v>
+        <v>173466</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>224429</v>
+        <v>225457</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1904488938078337</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1682846770854778</v>
+        <v>0.1661652536586414</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2149835963734989</v>
+        <v>0.2159680359786862</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>195</v>
@@ -3013,19 +3013,19 @@
         <v>210672</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>187019</v>
+        <v>182561</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>240447</v>
+        <v>239267</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1881121123456946</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1669916325874182</v>
+        <v>0.1630111573712245</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2146984160749489</v>
+        <v>0.2136447067608762</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>387</v>
@@ -3034,19 +3034,19 @@
         <v>409488</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>374420</v>
+        <v>374188</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>448349</v>
+        <v>447999</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1892394699043643</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1730331366842065</v>
+        <v>0.1729257145777517</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2071983568161555</v>
+        <v>0.2070364457421542</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>269417</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>242664</v>
+        <v>241557</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>298767</v>
+        <v>300299</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2757389386557801</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2483581771758855</v>
+        <v>0.2472246312453224</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3057775576951461</v>
+        <v>0.3073454495492343</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>337</v>
@@ -3159,19 +3159,19 @@
         <v>350223</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>317400</v>
+        <v>319477</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>380319</v>
+        <v>384848</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3200543969940387</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2900584239188794</v>
+        <v>0.2919570311947979</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3475572606410823</v>
+        <v>0.3516964607144908</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>595</v>
@@ -3180,19 +3180,19 @@
         <v>619640</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>577060</v>
+        <v>574738</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>662899</v>
+        <v>662896</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2991502798335032</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2785934949360779</v>
+        <v>0.2774722836505073</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3200348965502756</v>
+        <v>0.3200330468967669</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>205422</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>178989</v>
+        <v>178851</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>232554</v>
+        <v>231293</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2102423956326807</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1831890738932553</v>
+        <v>0.1830475253113933</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2380108613269387</v>
+        <v>0.2367199965621709</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>199</v>
@@ -3230,19 +3230,19 @@
         <v>220533</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>193878</v>
+        <v>194091</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>249479</v>
+        <v>249367</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2015360128078545</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1771771350734458</v>
+        <v>0.1773713319056737</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2279887819656662</v>
+        <v>0.2278859438886162</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>390</v>
@@ -3251,19 +3251,19 @@
         <v>425955</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>389403</v>
+        <v>387978</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>463676</v>
+        <v>465535</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2056429148560167</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1879963793948208</v>
+        <v>0.1873080282548407</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2238538056453267</v>
+        <v>0.2247512210468693</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>297956</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>270778</v>
+        <v>269102</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>332591</v>
+        <v>327734</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3049471092442791</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2771319877987475</v>
+        <v>0.2754161671646202</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.340394967440998</v>
+        <v>0.3354246943347523</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>299</v>
@@ -3301,19 +3301,19 @@
         <v>326767</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>297802</v>
+        <v>296034</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>360606</v>
+        <v>359791</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2986186683677853</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2721486862444185</v>
+        <v>0.270533157130914</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.329543005233038</v>
+        <v>0.3287979877006638</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>572</v>
@@ -3322,19 +3322,19 @@
         <v>624723</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>578107</v>
+        <v>581229</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>665926</v>
+        <v>669763</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.301603867539505</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2790989144803945</v>
+        <v>0.2806060462463509</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3214959358893724</v>
+        <v>0.3233484090569073</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>204278</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>182139</v>
+        <v>177314</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>233005</v>
+        <v>230430</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2090715564672601</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1864130770802844</v>
+        <v>0.1814749016544472</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2384729287348281</v>
+        <v>0.2358368489462258</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>185</v>
@@ -3372,19 +3372,19 @@
         <v>196738</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>172772</v>
+        <v>172793</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>224450</v>
+        <v>223230</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1797909218303215</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1578893372191178</v>
+        <v>0.1579080241907428</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2051157935223504</v>
+        <v>0.2040000976099981</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>387</v>
@@ -3393,19 +3393,19 @@
         <v>401017</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>366125</v>
+        <v>365565</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>437297</v>
+        <v>440525</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1936029377709751</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1767578395378782</v>
+        <v>0.1764877144919837</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2111186711698663</v>
+        <v>0.2126766638081992</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>268956</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>240683</v>
+        <v>242867</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>300379</v>
+        <v>297700</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3038659468279593</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2719231679599893</v>
+        <v>0.2743906658010344</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3393676698574968</v>
+        <v>0.3363403110463642</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>247</v>
@@ -3518,19 +3518,19 @@
         <v>259274</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>231832</v>
+        <v>231792</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>286270</v>
+        <v>287004</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2960439824327527</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2647101658555311</v>
+        <v>0.264664572863157</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3268688034376888</v>
+        <v>0.3277064058201778</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>511</v>
@@ -3539,19 +3539,19 @@
         <v>528230</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>489082</v>
+        <v>488980</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>564442</v>
+        <v>568726</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2999756628489032</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2777439449561575</v>
+        <v>0.2776860913958622</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3205398371361611</v>
+        <v>0.3229723536216871</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>175569</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>150482</v>
+        <v>151119</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>203868</v>
+        <v>202026</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1983575732416257</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1700143907252466</v>
+        <v>0.1707335891259271</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2303296766042119</v>
+        <v>0.2282479793329944</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>162</v>
@@ -3589,19 +3589,19 @@
         <v>176767</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>153246</v>
+        <v>152720</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>203223</v>
+        <v>201602</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2018354886894935</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1749786016788795</v>
+        <v>0.1743784991061601</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2320437753753653</v>
+        <v>0.2301929863755944</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>315</v>
@@ -3610,19 +3610,19 @@
         <v>352336</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>319201</v>
+        <v>320803</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>389021</v>
+        <v>390604</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2000873278229229</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1812705917231852</v>
+        <v>0.1821799480837975</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2209204616352144</v>
+        <v>0.2218194143947475</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>242577</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>214406</v>
+        <v>213334</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>271509</v>
+        <v>268912</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2740621450540793</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2422351750539047</v>
+        <v>0.2410242909324451</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3067498787718862</v>
+        <v>0.3038157953072196</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>217</v>
@@ -3660,19 +3660,19 @@
         <v>234545</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>206830</v>
+        <v>207321</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>261662</v>
+        <v>260573</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2678083360922726</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2361617317742358</v>
+        <v>0.2367229436047256</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2987704842426153</v>
+        <v>0.2975266072138859</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>447</v>
@@ -3681,19 +3681,19 @@
         <v>477122</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>437507</v>
+        <v>435932</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>516512</v>
+        <v>517429</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2709517891916692</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2484550205721492</v>
+        <v>0.2475607365884147</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.293320840720283</v>
+        <v>0.2938418688461688</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>198013</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>173344</v>
+        <v>172481</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>225987</v>
+        <v>225827</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2237143348763357</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1958431973357237</v>
+        <v>0.1948689072166968</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2553196951245145</v>
+        <v>0.2551380650211842</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>195</v>
@@ -3731,19 +3731,19 @@
         <v>205210</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>180075</v>
+        <v>177397</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>229359</v>
+        <v>232447</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2343121927854812</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.205612415102266</v>
+        <v>0.2025551375520742</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2618866080191684</v>
+        <v>0.2654125749415613</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>378</v>
@@ -3752,19 +3752,19 @@
         <v>403223</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>369780</v>
+        <v>366427</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>440907</v>
+        <v>439620</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2289852201365047</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2099936182108162</v>
+        <v>0.2080894556913768</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2503859303133798</v>
+        <v>0.2496551490433433</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>183686</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>162421</v>
+        <v>162337</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>207132</v>
+        <v>207278</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3651639557159667</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3228895741083962</v>
+        <v>0.3227220414243682</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.411773816987302</v>
+        <v>0.4120655249053384</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>171</v>
@@ -3877,19 +3877,19 @@
         <v>181475</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>162335</v>
+        <v>159326</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>205758</v>
+        <v>203170</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4008413984523411</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3585642970454427</v>
+        <v>0.3519184347559984</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4544766165086625</v>
+        <v>0.4487609736295833</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>344</v>
@@ -3898,19 +3898,19 @@
         <v>365161</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>334772</v>
+        <v>336070</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>395445</v>
+        <v>398228</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3820640954122823</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3502683619235222</v>
+        <v>0.3516268876853748</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4137501638010321</v>
+        <v>0.4166621500509808</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>106081</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>88670</v>
+        <v>88598</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>128666</v>
+        <v>127418</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2108876825269697</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1762750907172971</v>
+        <v>0.1761310452973939</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2557862199256191</v>
+        <v>0.2533048314111553</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>82</v>
@@ -3948,19 +3948,19 @@
         <v>93054</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>75468</v>
+        <v>75647</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>111992</v>
+        <v>112920</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2055374435760891</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1666922573519107</v>
+        <v>0.1670894252305319</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.247367873760473</v>
+        <v>0.2494164266534384</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>174</v>
@@ -3969,19 +3969,19 @@
         <v>199135</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>172759</v>
+        <v>177118</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>226738</v>
+        <v>227784</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2083533140648948</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1807557083530469</v>
+        <v>0.1853170863635545</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2372341640894708</v>
+        <v>0.238327968688939</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>113991</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>95229</v>
+        <v>95414</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>135280</v>
+        <v>132493</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.226612253786371</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1893129086835523</v>
+        <v>0.1896806780932172</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2689340747192097</v>
+        <v>0.2633935736191613</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>89</v>
@@ -4019,19 +4019,19 @@
         <v>98795</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>80073</v>
+        <v>80303</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>117930</v>
+        <v>116462</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2182168930360753</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1768646890283194</v>
+        <v>0.1773732953523556</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2604832661059546</v>
+        <v>0.2572396312162535</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>191</v>
@@ -4040,19 +4040,19 @@
         <v>212786</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>187153</v>
+        <v>185484</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>241409</v>
+        <v>240955</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2226354337398964</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1958158113296373</v>
+        <v>0.1940704545433077</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2525838351720735</v>
+        <v>0.2521087017117254</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>99265</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>80181</v>
+        <v>81278</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>118649</v>
+        <v>117438</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1973361079706926</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1593975194806487</v>
+        <v>0.1615789243786891</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2358715938901889</v>
+        <v>0.2334637909394384</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>70</v>
@@ -4090,19 +4090,19 @@
         <v>79412</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>62731</v>
+        <v>63069</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>98065</v>
+        <v>97039</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1754042649354944</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1385607578902454</v>
+        <v>0.1393072956016515</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2166052480846889</v>
+        <v>0.2143391149472652</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>164</v>
@@ -4111,19 +4111,19 @@
         <v>178676</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>156985</v>
+        <v>155215</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>205777</v>
+        <v>206244</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1869471567829265</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1642522895989112</v>
+        <v>0.1623995468941551</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2153019590222065</v>
+        <v>0.2157908819306865</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>941514</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>889520</v>
+        <v>888815</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>997089</v>
+        <v>993782</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.276173113349179</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2609218680019245</v>
+        <v>0.260714853038624</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.292474926154187</v>
+        <v>0.2915048926043337</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1003</v>
@@ -4236,19 +4236,19 @@
         <v>1051901</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>996183</v>
+        <v>995804</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1111107</v>
+        <v>1108155</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2969188853513858</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2811914147395096</v>
+        <v>0.2810844930853541</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3136309902451432</v>
+        <v>0.3127977186923535</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1908</v>
@@ -4257,19 +4257,19 @@
         <v>1993415</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1914963</v>
+        <v>1919619</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2069291</v>
+        <v>2073722</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2867453090083299</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2754603153513217</v>
+        <v>0.2761300409890399</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2976598144007095</v>
+        <v>0.2982971784349401</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>753714</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>701711</v>
+        <v>700477</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>803702</v>
+        <v>806837</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2210858187151299</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2058319843271709</v>
+        <v>0.2054700388889489</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2357487752151073</v>
+        <v>0.2366684715997325</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>703</v>
@@ -4307,19 +4307,19 @@
         <v>775006</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>724321</v>
+        <v>725535</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>826262</v>
+        <v>824575</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2187601265126424</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2044533426069373</v>
+        <v>0.2047958609062004</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2332279933602202</v>
+        <v>0.2327519239953169</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1388</v>
@@ -4328,19 +4328,19 @@
         <v>1528720</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1460079</v>
+        <v>1455712</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1601601</v>
+        <v>1609591</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2199006291254128</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2100268684445707</v>
+        <v>0.2093987283545648</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2303842355568608</v>
+        <v>0.2315336872234669</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>1013545</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>957828</v>
+        <v>961123</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1064979</v>
+        <v>1068387</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2973019454455522</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2809584768546524</v>
+        <v>0.2819249677126555</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3123889064089675</v>
+        <v>0.3133885337662993</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>933</v>
@@ -4378,19 +4378,19 @@
         <v>1023783</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>966226</v>
+        <v>971639</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1073406</v>
+        <v>1079377</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2889819532403044</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2727355747353357</v>
+        <v>0.2742633689768599</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3029891023728185</v>
+        <v>0.304674585514554</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1865</v>
@@ -4399,19 +4399,19 @@
         <v>2037328</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1959892</v>
+        <v>1959237</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2121026</v>
+        <v>2112698</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.29306201716199</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2819230565099957</v>
+        <v>0.2818288747842229</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.305101600537417</v>
+        <v>0.3039037448389242</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>700372</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>656615</v>
+        <v>654653</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>748184</v>
+        <v>749179</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2054391224901388</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1926041492307808</v>
+        <v>0.192028623508938</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2194639337643937</v>
+        <v>0.2197555971481703</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>645</v>
@@ -4449,19 +4449,19 @@
         <v>692032</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>645446</v>
+        <v>645968</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>743386</v>
+        <v>735852</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1953390348956673</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1821891623411363</v>
+        <v>0.1823367311146596</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2098346449223103</v>
+        <v>0.207708096469326</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1316</v>
@@ -4470,19 +4470,19 @@
         <v>1392404</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1323993</v>
+        <v>1328873</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1460853</v>
+        <v>1461312</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2002920447042673</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1904514634377145</v>
+        <v>0.1911534224069675</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2101382931680168</v>
+        <v>0.2102042690842312</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>231295</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>204063</v>
+        <v>206653</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>257625</v>
+        <v>258396</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2050492800780457</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1809073991202712</v>
+        <v>0.1832032570011211</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2283917560047449</v>
+        <v>0.2290751171662478</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>278</v>
@@ -4835,19 +4835,19 @@
         <v>299875</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>268699</v>
+        <v>269923</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>330983</v>
+        <v>330315</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2380789545824895</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2133274868901174</v>
+        <v>0.2142991221809169</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2627762206779978</v>
+        <v>0.2622457395343521</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>508</v>
@@ -4856,19 +4856,19 @@
         <v>531170</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>490831</v>
+        <v>490243</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>573675</v>
+        <v>573642</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2224741477661623</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2055788548471907</v>
+        <v>0.2053323896964699</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.240277069129221</v>
+        <v>0.2402631550297329</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>319857</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>290385</v>
+        <v>286989</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>352854</v>
+        <v>351431</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2835620852014391</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2574343234032186</v>
+        <v>0.2544231970120286</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3128147358602019</v>
+        <v>0.3115533942061365</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>340</v>
@@ -4906,19 +4906,19 @@
         <v>365480</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>332980</v>
+        <v>329396</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>400398</v>
+        <v>397300</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2901644246196826</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2643615702410319</v>
+        <v>0.2615162533442345</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3178868069030301</v>
+        <v>0.3154270119842332</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>634</v>
@@ -4927,19 +4927,19 @@
         <v>685337</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>639844</v>
+        <v>635880</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>727443</v>
+        <v>732070</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2870451619353455</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2679910121004002</v>
+        <v>0.2663306772635388</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3046805750875484</v>
+        <v>0.3066186615638293</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>345833</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>313438</v>
+        <v>312451</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>378129</v>
+        <v>376851</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3065904579518692</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2778716496340383</v>
+        <v>0.2769962699974844</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3352214366362085</v>
+        <v>0.3340886490754899</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>344</v>
@@ -4977,19 +4977,19 @@
         <v>363900</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>331483</v>
+        <v>333767</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>397400</v>
+        <v>398664</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2889100974810433</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2631734087360562</v>
+        <v>0.264986692478307</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3155066574960266</v>
+        <v>0.3165101785810077</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>666</v>
@@ -4998,19 +4998,19 @@
         <v>709733</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>663247</v>
+        <v>663732</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>758601</v>
+        <v>757676</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.297263150114158</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2777930895811658</v>
+        <v>0.2779959837043809</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3177308250092437</v>
+        <v>0.317343612602302</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>231012</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>202326</v>
+        <v>204875</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>258979</v>
+        <v>261709</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2047981767686461</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1793674555018847</v>
+        <v>0.1816274089925994</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2295917038144684</v>
+        <v>0.2320121448120137</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>226</v>
@@ -5048,19 +5048,19 @@
         <v>230306</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>202780</v>
+        <v>203310</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>261551</v>
+        <v>259753</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1828465233167846</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1609925430397764</v>
+        <v>0.1614136324334736</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2076523867960409</v>
+        <v>0.2062249137092079</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>446</v>
@@ -5069,19 +5069,19 @@
         <v>461318</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>425087</v>
+        <v>423140</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>504948</v>
+        <v>502404</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1932175401843342</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1780425043125297</v>
+        <v>0.1772272356341551</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2114914777433865</v>
+        <v>0.2104260803230118</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>246491</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>221929</v>
+        <v>221692</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>271573</v>
+        <v>272898</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2712189935758954</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2441933848654535</v>
+        <v>0.2439321065454332</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2988178025723399</v>
+        <v>0.3002751550818052</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>279</v>
@@ -5194,19 +5194,19 @@
         <v>301496</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>271799</v>
+        <v>272815</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>332013</v>
+        <v>331107</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2995568219706581</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2700501909569008</v>
+        <v>0.2710602039546103</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3298772818067056</v>
+        <v>0.3289768882897663</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>532</v>
@@ -5215,19 +5215,19 @@
         <v>547987</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>507317</v>
+        <v>507600</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>586513</v>
+        <v>585442</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2861103020472019</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2648760700489231</v>
+        <v>0.2650237392552955</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3062253231363726</v>
+        <v>0.3056657051005175</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>215418</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>191106</v>
+        <v>190992</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>245364</v>
+        <v>243259</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2370287041732654</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2102782930198052</v>
+        <v>0.210153211273034</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2699799139653361</v>
+        <v>0.267662701686762</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>182</v>
@@ -5265,19 +5265,19 @@
         <v>193146</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>168560</v>
+        <v>169680</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>218314</v>
+        <v>217120</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1919032590604929</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1674754160345359</v>
+        <v>0.1685884619097224</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2169091890783392</v>
+        <v>0.2157229155806495</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>379</v>
@@ -5286,19 +5286,19 @@
         <v>408563</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>374969</v>
+        <v>371665</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>446951</v>
+        <v>444024</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2133156336543015</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.195775404181608</v>
+        <v>0.1940507432604908</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2333581337257197</v>
+        <v>0.2318298219580521</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>284757</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>255074</v>
+        <v>258315</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>312626</v>
+        <v>314150</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3133242438429255</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2806633844965102</v>
+        <v>0.2842294613328993</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3439886885317963</v>
+        <v>0.3456661201062392</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>298</v>
@@ -5336,19 +5336,19 @@
         <v>318261</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>291684</v>
+        <v>291632</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>350896</v>
+        <v>349664</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3162138523780694</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2898070277280436</v>
+        <v>0.289755916267924</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3486385413669496</v>
+        <v>0.3474145976306314</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>568</v>
@@ -5357,19 +5357,19 @@
         <v>603018</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>561153</v>
+        <v>563855</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>645416</v>
+        <v>648989</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3148427106590383</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2929845365635064</v>
+        <v>0.2943952965916315</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3369788574946941</v>
+        <v>0.3388443747146075</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>162160</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>140194</v>
+        <v>140502</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>184832</v>
+        <v>186728</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1784280584079136</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1542586716057135</v>
+        <v>0.154597114416588</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2033742380855258</v>
+        <v>0.2054611974917014</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>192</v>
@@ -5407,19 +5407,19 @@
         <v>193571</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>171686</v>
+        <v>168965</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>222667</v>
+        <v>219658</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1923260665907797</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1705813027248434</v>
+        <v>0.1678777767767112</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2212346474721618</v>
+        <v>0.2182452804147235</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>353</v>
@@ -5428,19 +5428,19 @@
         <v>355731</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>323985</v>
+        <v>324605</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>389647</v>
+        <v>392079</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1857313536394583</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1691562141188817</v>
+        <v>0.1694799345897928</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2034389059626611</v>
+        <v>0.2047087120477296</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>254142</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>228000</v>
+        <v>230599</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>283139</v>
+        <v>279799</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3085152496719799</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2767796744702573</v>
+        <v>0.2799353645450412</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3437159936988606</v>
+        <v>0.3396614493780301</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>215</v>
@@ -5553,19 +5553,19 @@
         <v>237041</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>211039</v>
+        <v>213085</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>264441</v>
+        <v>264640</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3074230802713304</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2736996136312547</v>
+        <v>0.276353498561607</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3429577681664684</v>
+        <v>0.3432161223959923</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>469</v>
@@ -5574,19 +5574,19 @@
         <v>491184</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>458348</v>
+        <v>454250</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>532784</v>
+        <v>529637</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.307987210284515</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2873983645706376</v>
+        <v>0.2848288591916536</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3340721595211514</v>
+        <v>0.3320987415120916</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>147839</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>126275</v>
+        <v>127083</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>170549</v>
+        <v>173641</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1794693082307476</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1532909239060707</v>
+        <v>0.1542715326093943</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2070372488010495</v>
+        <v>0.2107905926530466</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>141</v>
@@ -5624,19 +5624,19 @@
         <v>148011</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>127831</v>
+        <v>126493</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>170511</v>
+        <v>171227</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1919585715344799</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1657861109329096</v>
+        <v>0.1640511815305389</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2211381785185153</v>
+        <v>0.2220679045541395</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>276</v>
@@ -5645,19 +5645,19 @@
         <v>295851</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>261312</v>
+        <v>265123</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>324659</v>
+        <v>327013</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1855075866707667</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.163850694105612</v>
+        <v>0.1662405463349229</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2035708960232229</v>
+        <v>0.2050472953687627</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>239471</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>214416</v>
+        <v>214696</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>268852</v>
+        <v>266774</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2907055307886436</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2602897621752946</v>
+        <v>0.2606290735460846</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3263719519979662</v>
+        <v>0.3238497678416084</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>218</v>
@@ -5695,19 +5695,19 @@
         <v>231813</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>207314</v>
+        <v>205386</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>257478</v>
+        <v>259733</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.30064254095475</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2688689553497633</v>
+        <v>0.2663683572330902</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3339274828899503</v>
+        <v>0.3368521274769459</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>438</v>
@@ -5716,19 +5716,19 @@
         <v>471284</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>436470</v>
+        <v>434157</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>507936</v>
+        <v>508683</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.295509852131306</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2736799168178938</v>
+        <v>0.272229829379865</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.318491573694053</v>
+        <v>0.31896013219202</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>182306</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>161587</v>
+        <v>158312</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>209676</v>
+        <v>206388</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2213099113086288</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1961581132956</v>
+        <v>0.192182404324971</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2545354166129958</v>
+        <v>0.2505447181589987</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>154</v>
@@ -5766,19 +5766,19 @@
         <v>154193</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>133990</v>
+        <v>133828</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>176651</v>
+        <v>181200</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1999758072394397</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1737738835289964</v>
+        <v>0.1735638722172482</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2291014981336182</v>
+        <v>0.2350009202852197</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>332</v>
@@ -5787,19 +5787,19 @@
         <v>336499</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>304214</v>
+        <v>301520</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>372597</v>
+        <v>367015</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2109953509134123</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1907514739398508</v>
+        <v>0.1890623889448379</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2336295092536761</v>
+        <v>0.2301296212420381</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>200462</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>178850</v>
+        <v>177631</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>222102</v>
+        <v>225596</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3956222963407792</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3529687048742821</v>
+        <v>0.3505633512187751</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4383297351393365</v>
+        <v>0.4452244880036424</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>186</v>
@@ -5912,19 +5912,19 @@
         <v>204371</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>182705</v>
+        <v>181313</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>227976</v>
+        <v>227037</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4173402471422739</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3730979963102194</v>
+        <v>0.3702543453483714</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4655450590358645</v>
+        <v>0.4636262147122981</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>376</v>
@@ -5933,19 +5933,19 @@
         <v>404832</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>370984</v>
+        <v>373351</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>434366</v>
+        <v>438455</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4062959653991719</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3723253366664088</v>
+        <v>0.3747011392001142</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4359360289171056</v>
+        <v>0.4400400284531727</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>71924</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>57528</v>
+        <v>55697</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>88878</v>
+        <v>88796</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1419456230725049</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1135346515274019</v>
+        <v>0.1099215515966482</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.175405685489217</v>
+        <v>0.1752428837560978</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>72</v>
@@ -5983,19 +5983,19 @@
         <v>77310</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>61929</v>
+        <v>61925</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>93841</v>
+        <v>96605</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1578726279837865</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1264628461185058</v>
+        <v>0.1264558558336709</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1916313660948974</v>
+        <v>0.1972741346320311</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>138</v>
@@ -6004,19 +6004,19 @@
         <v>149234</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>126951</v>
+        <v>127461</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>174007</v>
+        <v>177798</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1497732298788853</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1274103880156965</v>
+        <v>0.127921477515728</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1746363249715609</v>
+        <v>0.1784409286120429</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>144461</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>123497</v>
+        <v>123613</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>165590</v>
+        <v>166637</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2851014605689524</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2437283951288252</v>
+        <v>0.2439569185740086</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.32680109642896</v>
+        <v>0.3288664079118637</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>111</v>
@@ -6054,19 +6054,19 @@
         <v>121177</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>101857</v>
+        <v>102209</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>142496</v>
+        <v>142256</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2474518099802815</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2080002898754161</v>
+        <v>0.2087193612402767</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2909868387811664</v>
+        <v>0.2904975421311227</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>242</v>
@@ -6075,19 +6075,19 @@
         <v>265638</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>235098</v>
+        <v>236249</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>293115</v>
+        <v>293179</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2665978773248125</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2359477791715875</v>
+        <v>0.2371028376277191</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.294175101698003</v>
+        <v>0.2942388561333463</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>89854</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>73083</v>
+        <v>73345</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>108736</v>
+        <v>108854</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1773306200177634</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.144232544144573</v>
+        <v>0.1447498596903099</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2145958726148755</v>
+        <v>0.2148291691289634</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>86</v>
@@ -6125,19 +6125,19 @@
         <v>86841</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>69307</v>
+        <v>70341</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>103352</v>
+        <v>104486</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1773353148936581</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1415305189305866</v>
+        <v>0.1436421048238745</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2110528546045786</v>
+        <v>0.2133687305763982</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>170</v>
@@ -6146,19 +6146,19 @@
         <v>176694</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>153668</v>
+        <v>154874</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>205603</v>
+        <v>203403</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1773329273971303</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1542231519241145</v>
+        <v>0.1554341472966056</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2063457684834132</v>
+        <v>0.2041378259774441</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>932390</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>879818</v>
+        <v>884581</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>982064</v>
+        <v>986035</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2768969116989557</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2612843235041939</v>
+        <v>0.2626987552692328</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.291648937228816</v>
+        <v>0.2928280214246972</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>958</v>
@@ -6271,19 +6271,19 @@
         <v>1042783</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>986453</v>
+        <v>986401</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1098976</v>
+        <v>1102270</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2956746804690092</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.279702502396503</v>
+        <v>0.2796878625858442</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3116078331816386</v>
+        <v>0.3125418277769104</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1885</v>
@@ -6292,19 +6292,19 @@
         <v>1975173</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1900096</v>
+        <v>1895973</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2049677</v>
+        <v>2055907</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2865030292904471</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2756129430386506</v>
+        <v>0.2750148398571368</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2973099295199675</v>
+        <v>0.2982135821111239</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>755038</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>704462</v>
+        <v>707673</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>808954</v>
+        <v>805023</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2242278022297425</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2092079964769808</v>
+        <v>0.2101613822317301</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2402394307686964</v>
+        <v>0.2390720464740246</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>735</v>
@@ -6342,19 +6342,19 @@
         <v>783947</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>733303</v>
+        <v>732278</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>838104</v>
+        <v>836963</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2222832270565366</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2079236542493364</v>
+        <v>0.2076330026800156</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2376391501187287</v>
+        <v>0.2373156933451348</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1427</v>
@@ -6363,19 +6363,19 @@
         <v>1538985</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1472391</v>
+        <v>1472908</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1605258</v>
+        <v>1615683</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2232330185571956</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2135734489832226</v>
+        <v>0.2136483672685004</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2328460791793606</v>
+        <v>0.2343582359814653</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>1014523</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>963824</v>
+        <v>960859</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1072580</v>
+        <v>1069734</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3012882531573388</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2862321037189282</v>
+        <v>0.2853514993436764</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.318529840330042</v>
+        <v>0.3176847350278529</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>971</v>
@@ -6413,19 +6413,19 @@
         <v>1035151</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>977225</v>
+        <v>979358</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1090094</v>
+        <v>1090376</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2935105773551673</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2770859541426007</v>
+        <v>0.2776910037249475</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3090893261188532</v>
+        <v>0.3091694762956688</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1914</v>
@@ -6434,19 +6434,19 @@
         <v>2049674</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1963664</v>
+        <v>1975601</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2122833</v>
+        <v>2122037</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2973094381416108</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2848335298287397</v>
+        <v>0.2865650773854683</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3079214271773817</v>
+        <v>0.3078059741921972</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>665331</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>616617</v>
+        <v>616730</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>711211</v>
+        <v>715818</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1975870329139629</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1831201305063607</v>
+        <v>0.1831535717061034</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2112120577564807</v>
+        <v>0.2125802074619519</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>658</v>
@@ -6484,19 +6484,19 @@
         <v>664911</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>621066</v>
+        <v>620664</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>717432</v>
+        <v>716702</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1885315151192869</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1760995140902691</v>
+        <v>0.1759853472004666</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2034235007551169</v>
+        <v>0.2032163712396232</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1301</v>
@@ -6505,19 +6505,19 @@
         <v>1330243</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1262983</v>
+        <v>1255616</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1399823</v>
+        <v>1397671</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1929545140107465</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1831983622585189</v>
+        <v>0.1821297657780901</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2030472864641232</v>
+        <v>0.2027350517909925</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>162165</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>140782</v>
+        <v>138699</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>186331</v>
+        <v>187272</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3251505245015321</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2822752477484212</v>
+        <v>0.2780989355941866</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3736048137330775</v>
+        <v>0.3754905455832632</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>270</v>
@@ -6870,19 +6870,19 @@
         <v>206123</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>184082</v>
+        <v>186149</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>226593</v>
+        <v>230943</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3305484664481285</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2952014626961294</v>
+        <v>0.298515866447289</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3633736483883852</v>
+        <v>0.3703505362253815</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>420</v>
@@ -6891,19 +6891,19 @@
         <v>368289</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>339393</v>
+        <v>334946</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>398449</v>
+        <v>399872</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.328149714806814</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3024032744542222</v>
+        <v>0.2984410667117312</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3550224362638452</v>
+        <v>0.3562901584982371</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>110665</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>90120</v>
+        <v>90147</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>133319</v>
+        <v>133364</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2218897024422392</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1806966696712542</v>
+        <v>0.1807505541514161</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2673130179615814</v>
+        <v>0.2674031165161329</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>178</v>
@@ -6941,19 +6941,19 @@
         <v>139805</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>119792</v>
+        <v>119825</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>160657</v>
+        <v>162089</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2241973762944432</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1921035337280744</v>
+        <v>0.1921563315990152</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2576365160759929</v>
+        <v>0.2599337438922367</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>274</v>
@@ -6962,19 +6962,19 @@
         <v>250470</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>224527</v>
+        <v>219362</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>283012</v>
+        <v>277739</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2231718861177504</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2000563214999852</v>
+        <v>0.1954542980122312</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2521666003988543</v>
+        <v>0.2474688923063174</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>137277</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>117204</v>
+        <v>116764</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>162076</v>
+        <v>160835</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2752478449676293</v>
+        <v>0.2752478449676292</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2350002164569766</v>
+        <v>0.2341192437639118</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3249720658546761</v>
+        <v>0.3224833448709837</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>216</v>
@@ -7012,19 +7012,19 @@
         <v>154388</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>134615</v>
+        <v>134852</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>174870</v>
+        <v>172912</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.247584030858955</v>
+        <v>0.2475840308589549</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2158736942377686</v>
+        <v>0.2162538961378569</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2804288843619379</v>
+        <v>0.2772893149033384</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>339</v>
@@ -7033,19 +7033,19 @@
         <v>291666</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>263749</v>
+        <v>261328</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>322927</v>
+        <v>321887</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2598773493412043</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2350032981004243</v>
+        <v>0.232845805448331</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2877314583854788</v>
+        <v>0.2868049040511275</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>88632</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>70397</v>
+        <v>70342</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>109644</v>
+        <v>107908</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1777119280885995</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1411509414880252</v>
+        <v>0.1410392756590234</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2198421587819341</v>
+        <v>0.2163622940774054</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>197</v>
@@ -7083,19 +7083,19 @@
         <v>123263</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>106982</v>
+        <v>107707</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>140884</v>
+        <v>143558</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1976701263984732</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1715602917435845</v>
+        <v>0.17272363364482</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2259273097019753</v>
+        <v>0.2302151420062995</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>283</v>
@@ -7104,19 +7104,19 @@
         <v>211895</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>189083</v>
+        <v>187459</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>240786</v>
+        <v>239694</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1888010497342314</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1684747020084176</v>
+        <v>0.1670278517351787</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2145432392795275</v>
+        <v>0.2135697794912936</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>234361</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>207432</v>
+        <v>207285</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>266506</v>
+        <v>266671</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2440914913260456</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2160439803794804</v>
+        <v>0.2158905932147815</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2775705391618031</v>
+        <v>0.2777421909954043</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>405</v>
@@ -7229,19 +7229,19 @@
         <v>300325</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>275106</v>
+        <v>275989</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>327325</v>
+        <v>328051</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.269144716369648</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2465444781514277</v>
+        <v>0.2473355491799228</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.293341543582435</v>
+        <v>0.2939925584364462</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>641</v>
@@ -7250,19 +7250,19 @@
         <v>534686</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>495689</v>
+        <v>495189</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>576144</v>
+        <v>578292</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2575576823605957</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2387726547170339</v>
+        <v>0.2385319287793435</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2775279915492977</v>
+        <v>0.2785627995412442</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>231415</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>201800</v>
+        <v>202630</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>262480</v>
+        <v>264119</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2410230558030267</v>
+        <v>0.2410230558030266</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.210178651066359</v>
+        <v>0.2110425539613559</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2733779476545488</v>
+        <v>0.2750851948609375</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>326</v>
@@ -7300,19 +7300,19 @@
         <v>252037</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>226974</v>
+        <v>228719</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>280322</v>
+        <v>277418</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2258700508852141</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2034091590558009</v>
+        <v>0.2049727287540955</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2512189821350305</v>
+        <v>0.2486165214139501</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>510</v>
@@ -7321,19 +7321,19 @@
         <v>483452</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>445435</v>
+        <v>447533</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>525400</v>
+        <v>525824</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2328782657164966</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2145654920696423</v>
+        <v>0.2155760238675192</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2530847951787782</v>
+        <v>0.2532886039421943</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>288750</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>257304</v>
+        <v>258755</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>320178</v>
+        <v>321621</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3007384176806849</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2679863575686534</v>
+        <v>0.2694984275466641</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3334706564893373</v>
+        <v>0.3349743194345493</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>498</v>
@@ -7371,19 +7371,19 @@
         <v>347859</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>320233</v>
+        <v>320675</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>374800</v>
+        <v>374404</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3117433606977146</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2869860684561857</v>
+        <v>0.2873821717464147</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3358877090159735</v>
+        <v>0.3355326784326395</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>774</v>
@@ -7392,19 +7392,19 @@
         <v>636609</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>594442</v>
+        <v>597272</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>677246</v>
+        <v>678164</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3066536108238329</v>
+        <v>0.3066536108238328</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2863420919786536</v>
+        <v>0.2877051211489581</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3262286239063676</v>
+        <v>0.3266706795635368</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>205610</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>177630</v>
+        <v>178651</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>235940</v>
+        <v>235611</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2141470351902429</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1850049794098838</v>
+        <v>0.1860681246866688</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2457359424948722</v>
+        <v>0.2453930680847031</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>378</v>
@@ -7442,19 +7442,19 @@
         <v>215629</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>194435</v>
+        <v>193917</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>238168</v>
+        <v>236962</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1932418720474232</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1742487958994743</v>
+        <v>0.1737847066123408</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2134407880794345</v>
+        <v>0.2123598983377636</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>592</v>
@@ -7463,19 +7463,19 @@
         <v>421239</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>386085</v>
+        <v>388449</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>455826</v>
+        <v>460186</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2029104410990749</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1859764538380812</v>
+        <v>0.1871154122319253</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2195708949552091</v>
+        <v>0.2216712827659711</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>256147</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>227738</v>
+        <v>227138</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>284889</v>
+        <v>284906</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.244769993142443</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2176235425507677</v>
+        <v>0.2170495236696166</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2722357717375471</v>
+        <v>0.2722522110036847</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>429</v>
@@ -7588,19 +7588,19 @@
         <v>297247</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>270397</v>
+        <v>272929</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>320545</v>
+        <v>322986</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2837298975519377</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.258100688406833</v>
+        <v>0.2605171427118095</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3059680450667313</v>
+        <v>0.3082982862622106</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>700</v>
@@ -7609,19 +7609,19 @@
         <v>553394</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>514761</v>
+        <v>514507</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>592632</v>
+        <v>592495</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2642607578384811</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.245812374819646</v>
+        <v>0.2456910092915145</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2829979873694841</v>
+        <v>0.2829326330032868</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>212303</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>184688</v>
+        <v>183616</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>241492</v>
+        <v>241876</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2028734395692927</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1764854264540702</v>
+        <v>0.1754605513807928</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2307661118674427</v>
+        <v>0.2311326951831801</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>258</v>
@@ -7659,19 +7659,19 @@
         <v>196991</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>174679</v>
+        <v>174950</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>220455</v>
+        <v>220604</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1880328656200784</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1667357040154518</v>
+        <v>0.1669938355037147</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2104300321330472</v>
+        <v>0.2105715520725662</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>442</v>
@@ -7680,19 +7680,19 @@
         <v>409294</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>371817</v>
+        <v>376431</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>446612</v>
+        <v>446770</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1954490339096167</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1775529838760751</v>
+        <v>0.1797558672484666</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2132693267257056</v>
+        <v>0.2133447950136093</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>362240</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>325708</v>
+        <v>329860</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>393439</v>
+        <v>393951</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3461512014620329</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3112418381423258</v>
+        <v>0.3152092567673688</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.375964635470476</v>
+        <v>0.3764533843352669</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>474</v>
@@ -7730,19 +7730,19 @@
         <v>337442</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>311357</v>
+        <v>308844</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>363328</v>
+        <v>366241</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3220970533255195</v>
+        <v>0.3220970533255196</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.297198367515777</v>
+        <v>0.2947989217954932</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3468054350705085</v>
+        <v>0.3495860328968746</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>813</v>
@@ -7751,19 +7751,19 @@
         <v>699682</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>653500</v>
+        <v>656941</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>745104</v>
+        <v>741935</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3341174516775193</v>
+        <v>0.3341174516775194</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3120639639096348</v>
+        <v>0.3137074328618683</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3558074897145511</v>
+        <v>0.3542942050632801</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>215790</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>188908</v>
+        <v>188337</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>244195</v>
+        <v>240789</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2062053658262313</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1805175977705044</v>
+        <v>0.1799721274069503</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2333496274250932</v>
+        <v>0.2300945969158672</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>355</v>
@@ -7801,19 +7801,19 @@
         <v>215961</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>195804</v>
+        <v>193390</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>242549</v>
+        <v>238443</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2061401835024644</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1869000203455252</v>
+        <v>0.184595763261746</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2315189159375283</v>
+        <v>0.2276000106742765</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>590</v>
@@ -7822,19 +7822,19 @@
         <v>431751</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>399093</v>
+        <v>393511</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>468542</v>
+        <v>470565</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2061727565743828</v>
+        <v>0.2061727565743829</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1905775894733212</v>
+        <v>0.1879120235557447</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2237413902518705</v>
+        <v>0.2247074445729207</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>325666</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>291521</v>
+        <v>296360</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>357556</v>
+        <v>357448</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3336984806887107</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2987114047673138</v>
+        <v>0.303669716657321</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3663750686435565</v>
+        <v>0.3662645657576636</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>445</v>
@@ -7947,19 +7947,19 @@
         <v>304157</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>279711</v>
+        <v>278041</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>329739</v>
+        <v>329631</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3341122356031375</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3072585587504434</v>
+        <v>0.3054232280892782</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3622135053062723</v>
+        <v>0.3620941643664826</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>787</v>
@@ -7968,19 +7968,19 @@
         <v>629823</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>583144</v>
+        <v>587229</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>671888</v>
+        <v>670100</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3338981651868445</v>
+        <v>0.3338981651868444</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.309151083041441</v>
+        <v>0.3113169463407137</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3561985330170994</v>
+        <v>0.3552504131866253</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>239841</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>209763</v>
+        <v>212399</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>269611</v>
+        <v>274060</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2457566952334154</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.214936743697911</v>
+        <v>0.217637428160601</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2762604881222813</v>
+        <v>0.2808191809574415</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>275</v>
@@ -8018,19 +8018,19 @@
         <v>216585</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>194018</v>
+        <v>193969</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>241542</v>
+        <v>240609</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2379149846542111</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2131254798822101</v>
+        <v>0.2130722186875199</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2653302883448077</v>
+        <v>0.264305332100277</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>480</v>
@@ -8039,19 +8039,19 @@
         <v>456426</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>421291</v>
+        <v>419392</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>499205</v>
+        <v>494240</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2419721648582593</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2233457764754697</v>
+        <v>0.2223388640288528</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2646516144251665</v>
+        <v>0.2620194432363174</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>248074</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>219105</v>
+        <v>218274</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>279765</v>
+        <v>278038</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2541930827860828</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2245092394599764</v>
+        <v>0.2236580882906367</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2866649766463198</v>
+        <v>0.2848961308036058</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>317</v>
@@ -8089,19 +8089,19 @@
         <v>223339</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>200109</v>
+        <v>198958</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>247272</v>
+        <v>246732</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2453347482576889</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.219816859874006</v>
+        <v>0.2185520637299109</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2716240508797562</v>
+        <v>0.2710315968891736</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>534</v>
@@ -8110,19 +8110,19 @@
         <v>471414</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>431215</v>
+        <v>431725</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>509990</v>
+        <v>510119</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.2499179140257226</v>
+        <v>0.2499179140257225</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2286069953982488</v>
+        <v>0.2288771233367899</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.270369157128808</v>
+        <v>0.2704374576689794</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>162347</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>138930</v>
+        <v>139578</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>191094</v>
+        <v>190257</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1663517412917911</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.142356765329003</v>
+        <v>0.1430211536425639</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1958076292706915</v>
+        <v>0.1949497199180552</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>287</v>
@@ -8160,19 +8160,19 @@
         <v>166264</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>147418</v>
+        <v>147044</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>189019</v>
+        <v>187283</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1826380314849627</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1619367887926971</v>
+        <v>0.1615257529326514</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2076348994356154</v>
+        <v>0.2057272768807135</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>470</v>
@@ -8181,19 +8181,19 @@
         <v>328611</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>296255</v>
+        <v>298317</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>363333</v>
+        <v>366004</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1742117559291738</v>
+        <v>0.1742117559291737</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1570582871329129</v>
+        <v>0.1581513667420503</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1926196213572502</v>
+        <v>0.1940355909347074</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>978339</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>923541</v>
+        <v>923525</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1035239</v>
+        <v>1036774</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2810282720834248</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2652873332278834</v>
+        <v>0.2652827347479137</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2973726844539125</v>
+        <v>0.2978135629626456</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1549</v>
@@ -8306,19 +8306,19 @@
         <v>1107853</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1056931</v>
+        <v>1061546</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1158511</v>
+        <v>1168840</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2996289945119487</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2858567357668387</v>
+        <v>0.2871048229267302</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3133299250781046</v>
+        <v>0.3161235145722311</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2548</v>
@@ -8327,19 +8327,19 @@
         <v>2086193</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2013406</v>
+        <v>2005592</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2170752</v>
+        <v>2161737</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2906086426290842</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2804694472917994</v>
+        <v>0.2793808857044768</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3023878877964458</v>
+        <v>0.3011319962161698</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>794224</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>739180</v>
+        <v>739440</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>851216</v>
+        <v>848778</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2281411320976175</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2123296897511303</v>
+        <v>0.2124042838792185</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2445121439112309</v>
+        <v>0.2438116651990356</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1037</v>
@@ -8377,19 +8377,19 @@
         <v>805418</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>756684</v>
+        <v>763255</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>848761</v>
+        <v>853580</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2178325972289397</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2046520044304398</v>
+        <v>0.2064293509206036</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2295552397612872</v>
+        <v>0.2308584581405823</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1706</v>
@@ -8398,19 +8398,19 @@
         <v>1599642</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1526671</v>
+        <v>1522941</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1673265</v>
+        <v>1672599</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.222831683273558</v>
+        <v>0.2228316832735581</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2126668149176132</v>
+        <v>0.2121471892183126</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2330874836360843</v>
+        <v>0.2329947042209274</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>1036341</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>978034</v>
+        <v>982508</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1095193</v>
+        <v>1103347</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2976893805310669</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2809406127407206</v>
+        <v>0.2822256902687206</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3145945395535159</v>
+        <v>0.3169367523970711</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1505</v>
@@ -8448,19 +8448,19 @@
         <v>1063029</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1014031</v>
+        <v>1010731</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1112232</v>
+        <v>1110830</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2875058189594981</v>
+        <v>0.2875058189594982</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2742540285221328</v>
+        <v>0.2733613355302226</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3008133172059416</v>
+        <v>0.3004340208638558</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2460</v>
@@ -8469,19 +8469,19 @@
         <v>2099370</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2023696</v>
+        <v>2026551</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2181717</v>
+        <v>2179249</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2924442996636402</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2819028463622643</v>
+        <v>0.2823005670351292</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3039153409809598</v>
+        <v>0.3035715008432262</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>672379</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>623264</v>
+        <v>623880</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>720432</v>
+        <v>722403</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1931412152878907</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1790328695885579</v>
+        <v>0.1792096842575102</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2069444560987765</v>
+        <v>0.2075104741468533</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1217</v>
@@ -8519,19 +8519,19 @@
         <v>721117</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>684072</v>
+        <v>680584</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>763254</v>
+        <v>763077</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1950325892996134</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1850135536597543</v>
+        <v>0.1840701491747641</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2064289501870247</v>
+        <v>0.2063812507754533</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1935</v>
@@ -8540,19 +8540,19 @@
         <v>1393496</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1329183</v>
+        <v>1328307</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1462834</v>
+        <v>1456893</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.1941153744337175</v>
+        <v>0.1941153744337176</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1851565419105563</v>
+        <v>0.185034441985191</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2037742302631984</v>
+        <v>0.2029466673101678</v>
       </c>
     </row>
     <row r="28">
